--- a/MVPSt_2023_Feb_Competition/MVPSt_2023_Feb_Competition/ExcelData/TestData-ShareSkill.xlsx
+++ b/MVPSt_2023_Feb_Competition/MVPSt_2023_Feb_Competition/ExcelData/TestData-ShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MVP Studio Projects\MVPSt_2023_Feb_Competition\MVPSt_2023_Feb_Competition\MVPSt_2023_Feb_Competition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6157FB-EC2E-4CC4-B880-39FD9E7FF830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101F0CD1-CBBE-4625-BEC6-DFAAFB9A6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12649" xr2:uid="{58A694FC-ECEE-4C97-96D0-6EC920A77260}"/>
+    <workbookView xWindow="484" yWindow="2822" windowWidth="9976" windowHeight="7949" xr2:uid="{58A694FC-ECEE-4C97-96D0-6EC920A77260}"/>
   </bookViews>
   <sheets>
     <sheet name="Add 1-1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>Title</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Man of many talents.</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>NumberOfExistingListings</t>
   </si>
   <si>
-    <t>PowerPoint, Excel, Word, Access, Solitaire</t>
-  </si>
-  <si>
-    <t>11/9/2023</t>
-  </si>
-  <si>
     <t>8:30 PM</t>
   </si>
   <si>
@@ -201,15 +192,9 @@
     <t>12:00 AM</t>
   </si>
   <si>
-    <t>Something, Something else</t>
-  </si>
-  <si>
     <t>Hidden</t>
   </si>
   <si>
-    <t>C:\Users\User\Documents\MVP Studio Projects\MVPSt_2023_Jan\Test file to upload.txt</t>
-  </si>
-  <si>
     <t>ActionButton</t>
   </si>
   <si>
@@ -351,9 +336,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
     <t>Hourly</t>
   </si>
   <si>
@@ -367,6 +349,39 @@
   </si>
   <si>
     <t>ActionOfTest</t>
+  </si>
+  <si>
+    <t>Man of simple means.</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Documents\MVP Studio Projects\MVPSt_2023_Jan\Another test file to upload.txt</t>
+  </si>
+  <si>
+    <t>Something, Something else, Something even better</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Woman of leisure</t>
+  </si>
+  <si>
+    <t>H, e, l, L, o</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>1/9/2023</t>
+  </si>
+  <si>
+    <t>Today+36</t>
+  </si>
+  <si>
+    <t>PowerPoint, Excel, Word, Access, Solitaire, Poker, Manytaire, Cellist, Trombonist</t>
+  </si>
+  <si>
+    <t>Hello, olleH</t>
   </si>
 </sst>
 </file>
@@ -727,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE020A-5BCD-4543-B2DC-AB8BA95A5750}">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,34 +797,34 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -821,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
@@ -833,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -914,82 +929,82 @@
         <v>35</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
         <v>14</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
         <v>14</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
         <v>14</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>18</v>
@@ -998,245 +1013,316 @@
         <v>14</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s">
         <v>14</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AH2" t="s">
         <v>14</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s">
         <v>14</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="AP2" s="3">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="AQ2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AR2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AS2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>87</v>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="AO3" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AR3" t="s">
+        <v>35</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
       <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>90</v>
+      <c r="AO4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P7" t="s">
         <v>102</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q7" t="s">
         <v>103</v>
       </c>
-      <c r="L6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AB7" t="s">
         <v>14</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN7" t="s">
         <v>33</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP7" s="3">
         <v>0.9</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR7" t="s">
         <v>35</v>
       </c>
     </row>
